--- a/data/trans_orig/P70A03_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{299D7BF3-A5D3-487F-9754-810F55E70C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD67875E-E79B-4190-8BC6-849E8921A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF2AEB86-8DAB-4150-9026-04654FA6EDFD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3BFFD061-9E3F-456E-81BF-3CCC945FE970}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
   <si>
     <t>Población según si le han realizado algún reconocimiento médico en su empresa en 2007 (Tasa respuesta: 39,29%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>54,32%</t>
   </si>
   <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
   </si>
   <si>
     <t>43,1%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
   </si>
   <si>
     <t>51,28%</t>
   </si>
   <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>45,68%</t>
   </si>
   <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
   </si>
   <si>
     <t>56,9%</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
   </si>
   <si>
     <t>48,72%</t>
   </si>
   <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,52 +137,52 @@
     <t>54,45%</t>
   </si>
   <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
   </si>
   <si>
     <t>38,26%</t>
   </si>
   <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
   </si>
   <si>
     <t>50,0%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
   </si>
   <si>
     <t>45,55%</t>
   </si>
   <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -191,49 +191,55 @@
     <t>67,65%</t>
   </si>
   <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
   <si>
     <t>32,35%</t>
   </si>
   <si>
-    <t>28,56%</t>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -242,55 +248,55 @@
     <t>64,7%</t>
   </si>
   <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
   </si>
   <si>
     <t>54,37%</t>
   </si>
   <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
   </si>
   <si>
     <t>61,1%</t>
   </si>
   <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
   </si>
   <si>
     <t>45,63%</t>
   </si>
   <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
   </si>
   <si>
     <t>38,9%</t>
   </si>
   <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -299,109 +305,109 @@
     <t>67,55%</t>
   </si>
   <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
   </si>
   <si>
     <t>49,07%</t>
   </si>
   <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
   </si>
   <si>
     <t>60,08%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>32,45%</t>
   </si>
   <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
   </si>
   <si>
     <t>50,93%</t>
   </si>
   <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
   </si>
   <si>
     <t>39,92%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
   </si>
   <si>
     <t>64,4%</t>
   </si>
   <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>49,61%</t>
   </si>
   <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
   </si>
   <si>
     <t>50,39%</t>
   </si>
   <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
   </si>
   <si>
     <t>40,71%</t>
   </si>
   <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9DB8F6-3ECD-46DD-B348-C25C00737482}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E086AD1C-8B97-4B70-A965-58E1809E7FE2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1280,13 +1286,13 @@
         <v>477796</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1301,13 +1307,13 @@
         <v>167198</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>110</v>
@@ -1316,13 +1322,13 @@
         <v>117843</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>260</v>
@@ -1331,13 +1337,13 @@
         <v>285042</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1399,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1405,13 +1411,13 @@
         <v>243524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
@@ -1420,13 +1426,13 @@
         <v>109478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>337</v>
@@ -1435,13 +1441,13 @@
         <v>353002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1456,13 +1462,13 @@
         <v>132867</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -1471,13 +1477,13 @@
         <v>91876</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -1486,13 +1492,13 @@
         <v>224743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,7 +1554,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1560,13 +1566,13 @@
         <v>346790</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>164</v>
@@ -1575,13 +1581,13 @@
         <v>170806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>527</v>
@@ -1590,13 +1596,13 @@
         <v>517596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1617,13 @@
         <v>166617</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>164</v>
@@ -1626,13 +1632,13 @@
         <v>177260</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>332</v>
@@ -1641,13 +1647,13 @@
         <v>343877</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1721,13 @@
         <v>1125648</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>444</v>
@@ -1730,13 +1736,13 @@
         <v>458672</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>1525</v>
@@ -1745,13 +1751,13 @@
         <v>1584320</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,13 +1772,13 @@
         <v>622152</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>441</v>
@@ -1781,13 +1787,13 @@
         <v>465792</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1033</v>
@@ -1796,13 +1802,13 @@
         <v>1087945</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,7 +1864,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A03_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD67875E-E79B-4190-8BC6-849E8921A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E21CDD4-D278-4DAC-865C-72D7F69F4543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3BFFD061-9E3F-456E-81BF-3CCC945FE970}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13F5563C-F7F8-4396-8289-0B0E71B6D95E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="123">
   <si>
     <t>Población según si le han realizado algún reconocimiento médico en su empresa en 2007 (Tasa respuesta: 39,29%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -74,28 +74,28 @@
     <t>54,32%</t>
   </si>
   <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
   </si>
   <si>
     <t>43,1%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
   </si>
   <si>
     <t>51,28%</t>
   </si>
   <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,199 +104,199 @@
     <t>45,68%</t>
   </si>
   <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
   </si>
   <si>
     <t>56,9%</t>
   </si>
   <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
   </si>
   <si>
     <t>48,72%</t>
   </si>
   <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>54,45%</t>
   </si>
   <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
   </si>
   <si>
     <t>38,26%</t>
   </si>
   <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
   </si>
   <si>
     <t>50,0%</t>
   </si>
   <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
   </si>
   <si>
     <t>45,55%</t>
   </si>
   <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>67,65%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
   </si>
   <si>
     <t>52,1%</t>
   </si>
   <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
   </si>
   <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
   </si>
   <si>
     <t>32,35%</t>
   </si>
   <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
   </si>
   <si>
     <t>47,9%</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>64,7%</t>
   </si>
   <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
   </si>
   <si>
     <t>54,37%</t>
   </si>
   <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
   <si>
     <t>61,1%</t>
   </si>
   <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
   </si>
   <si>
     <t>45,63%</t>
   </si>
   <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
   </si>
   <si>
     <t>38,9%</t>
   </si>
   <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -305,109 +305,103 @@
     <t>67,55%</t>
   </si>
   <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
   </si>
   <si>
     <t>49,07%</t>
   </si>
   <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
   </si>
   <si>
     <t>60,08%</t>
   </si>
   <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
   </si>
   <si>
     <t>32,45%</t>
   </si>
   <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
   </si>
   <si>
     <t>50,93%</t>
   </si>
   <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
   </si>
   <si>
     <t>39,92%</t>
   </si>
   <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
   </si>
   <si>
     <t>64,4%</t>
   </si>
   <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
   </si>
   <si>
     <t>49,61%</t>
   </si>
   <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
+    <t>57,36%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
   </si>
   <si>
     <t>50,39%</t>
   </si>
   <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
   </si>
   <si>
     <t>40,71%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
+    <t>42,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -822,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E086AD1C-8B97-4B70-A965-58E1809E7FE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27B2D0E-FA76-435A-8363-236BFF3603B7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1757,7 +1751,7 @@
         <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,13 +1766,13 @@
         <v>622152</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>441</v>
@@ -1787,13 +1781,13 @@
         <v>465792</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1033</v>
@@ -1802,13 +1796,13 @@
         <v>1087945</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,7 +1858,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A03_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E21CDD4-D278-4DAC-865C-72D7F69F4543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{769DFD38-FA39-48B0-9547-522EEF70BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13F5563C-F7F8-4396-8289-0B0E71B6D95E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{87F95371-4CD6-4968-847C-2AC0FB8D5A83}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,34 +68,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>54,32%</t>
   </si>
   <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
   </si>
   <si>
     <t>43,1%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
   </si>
   <si>
     <t>51,28%</t>
   </si>
   <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>45,68%</t>
   </si>
   <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
   </si>
   <si>
     <t>56,9%</t>
   </si>
   <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
   </si>
   <si>
     <t>48,72%</t>
   </si>
   <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,52 +137,52 @@
     <t>54,45%</t>
   </si>
   <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
   </si>
   <si>
     <t>38,26%</t>
   </si>
   <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
   </si>
   <si>
     <t>50,0%</t>
   </si>
   <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
   </si>
   <si>
     <t>45,55%</t>
   </si>
   <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -191,55 +191,49 @@
     <t>67,65%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>52,1%</t>
   </si>
   <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
   </si>
   <si>
     <t>32,35%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
   </si>
   <si>
     <t>47,9%</t>
   </si>
   <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -248,55 +242,55 @@
     <t>64,7%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
   </si>
   <si>
     <t>54,37%</t>
   </si>
   <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
   </si>
   <si>
     <t>61,1%</t>
   </si>
   <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
   </si>
   <si>
     <t>45,63%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
   </si>
   <si>
     <t>38,9%</t>
   </si>
   <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -305,103 +299,109 @@
     <t>67,55%</t>
   </si>
   <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
   </si>
   <si>
     <t>49,07%</t>
   </si>
   <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
   </si>
   <si>
     <t>60,08%</t>
   </si>
   <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
   </si>
   <si>
     <t>32,45%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
   </si>
   <si>
     <t>50,93%</t>
   </si>
   <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
   </si>
   <si>
     <t>39,92%</t>
   </si>
   <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
   </si>
   <si>
     <t>64,4%</t>
   </si>
   <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>49,61%</t>
   </si>
   <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>57,36%</t>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>50,39%</t>
   </si>
   <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>40,71%</t>
   </si>
   <si>
-    <t>42,64%</t>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27B2D0E-FA76-435A-8363-236BFF3603B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A7D7F4-CEA1-4E5A-9FA1-C3DB0DDA3B25}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1280,13 +1280,13 @@
         <v>477796</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1301,13 +1301,13 @@
         <v>167198</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>110</v>
@@ -1316,13 +1316,13 @@
         <v>117843</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>260</v>
@@ -1331,13 +1331,13 @@
         <v>285042</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1393,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1405,13 +1405,13 @@
         <v>243524</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
@@ -1420,13 +1420,13 @@
         <v>109478</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>337</v>
@@ -1435,13 +1435,13 @@
         <v>353002</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1456,13 +1456,13 @@
         <v>132867</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -1471,13 +1471,13 @@
         <v>91876</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -1486,13 +1486,13 @@
         <v>224743</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,7 +1548,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1560,13 +1560,13 @@
         <v>346790</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>164</v>
@@ -1575,13 +1575,13 @@
         <v>170806</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>527</v>
@@ -1590,13 +1590,13 @@
         <v>517596</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1611,13 @@
         <v>166617</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>164</v>
@@ -1626,13 +1626,13 @@
         <v>177260</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>332</v>
@@ -1641,13 +1641,13 @@
         <v>343877</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1715,13 @@
         <v>1125648</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>444</v>
@@ -1730,13 +1730,13 @@
         <v>458672</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>1525</v>
@@ -1745,13 +1745,13 @@
         <v>1584320</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,13 +1766,13 @@
         <v>622152</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>441</v>
@@ -1781,13 +1781,13 @@
         <v>465792</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>1033</v>
@@ -1796,10 +1796,10 @@
         <v>1087945</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>121</v>

--- a/data/trans_orig/P70A03_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{769DFD38-FA39-48B0-9547-522EEF70BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2688CFBB-C78C-414A-9954-171169BAE12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{87F95371-4CD6-4968-847C-2AC0FB8D5A83}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7B66514A-3A44-4F6F-BC60-08A2290159C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Población según si le han realizado algún reconocimiento médico en su empresa en 2007 (Tasa respuesta: 39,29%)</t>
   </si>
@@ -65,126 +65,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -236,7 +182,7 @@
     <t>41,04%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>64,7%</t>
@@ -816,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A7D7F4-CEA1-4E5A-9FA1-C3DB0DDA3B25}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D420BF8F-FC71-4CD5-AF38-BC714D9A5167}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -934,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="D4" s="7">
-        <v>25603</v>
+        <v>185720</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -949,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>7552</v>
+        <v>50205</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -964,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="N4" s="7">
-        <v>33155</v>
+        <v>235925</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -985,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="D5" s="7">
-        <v>21531</v>
+        <v>155470</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1000,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="I5" s="7">
-        <v>9971</v>
+        <v>78813</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1015,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="N5" s="7">
-        <v>31502</v>
+        <v>234283</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1036,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="D6" s="7">
-        <v>47134</v>
+        <v>341190</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1051,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="I6" s="7">
-        <v>17523</v>
+        <v>129018</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1066,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>60</v>
+        <v>451</v>
       </c>
       <c r="N6" s="7">
-        <v>64657</v>
+        <v>470208</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1089,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>155</v>
+        <v>316</v>
       </c>
       <c r="D7" s="7">
-        <v>160117</v>
+        <v>349614</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1104,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="I7" s="7">
-        <v>42653</v>
+        <v>128184</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1119,19 +1065,19 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>197</v>
+        <v>435</v>
       </c>
       <c r="N7" s="7">
-        <v>202770</v>
+        <v>477796</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1140,49 +1086,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D8" s="7">
-        <v>133939</v>
+        <v>167198</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>110</v>
+      </c>
+      <c r="I8" s="7">
+        <v>117843</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>65</v>
-      </c>
-      <c r="I8" s="7">
-        <v>68843</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>260</v>
+      </c>
+      <c r="N8" s="7">
+        <v>285042</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>194</v>
-      </c>
-      <c r="N8" s="7">
-        <v>202781</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1191,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>284</v>
+        <v>466</v>
       </c>
       <c r="D9" s="7">
-        <v>294056</v>
+        <v>516812</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1206,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c r="I9" s="7">
-        <v>111496</v>
+        <v>246027</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1221,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>391</v>
+        <v>695</v>
       </c>
       <c r="N9" s="7">
-        <v>405551</v>
+        <v>762838</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1238,49 +1184,49 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="D10" s="7">
-        <v>349614</v>
+        <v>243524</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>111</v>
+      </c>
+      <c r="I10" s="7">
+        <v>109478</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="7">
-        <v>119</v>
-      </c>
-      <c r="I10" s="7">
-        <v>128184</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>337</v>
+      </c>
+      <c r="N10" s="7">
+        <v>353002</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="M10" s="7">
-        <v>435</v>
-      </c>
-      <c r="N10" s="7">
-        <v>477796</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>56</v>
@@ -1295,10 +1241,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D11" s="7">
-        <v>167198</v>
+        <v>132867</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -1310,10 +1256,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="I11" s="7">
-        <v>117843</v>
+        <v>91876</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -1325,19 +1271,19 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="N11" s="7">
-        <v>285042</v>
+        <v>224743</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1346,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>466</v>
+        <v>351</v>
       </c>
       <c r="D12" s="7">
-        <v>516812</v>
+        <v>376391</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1361,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="I12" s="7">
-        <v>246027</v>
+        <v>201354</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1376,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>695</v>
+        <v>553</v>
       </c>
       <c r="N12" s="7">
-        <v>762838</v>
+        <v>577745</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1393,55 +1339,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>226</v>
+        <v>363</v>
       </c>
       <c r="D13" s="7">
-        <v>243524</v>
+        <v>346790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="I13" s="7">
-        <v>109478</v>
+        <v>170806</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>337</v>
+        <v>527</v>
       </c>
       <c r="N13" s="7">
-        <v>353002</v>
+        <v>517596</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="D14" s="7">
-        <v>132867</v>
+        <v>166617</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="I14" s="7">
-        <v>91876</v>
+        <v>177260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="N14" s="7">
-        <v>224743</v>
+        <v>343877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>351</v>
+        <v>531</v>
       </c>
       <c r="D15" s="7">
-        <v>376391</v>
+        <v>513407</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1516,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>202</v>
+        <v>328</v>
       </c>
       <c r="I15" s="7">
-        <v>201354</v>
+        <v>348066</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1531,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>553</v>
+        <v>859</v>
       </c>
       <c r="N15" s="7">
-        <v>577745</v>
+        <v>861473</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1548,16 +1494,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>363</v>
+        <v>1081</v>
       </c>
       <c r="D16" s="7">
-        <v>346790</v>
+        <v>1125648</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>86</v>
@@ -1569,10 +1515,10 @@
         <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>164</v>
+        <v>444</v>
       </c>
       <c r="I16" s="7">
-        <v>170806</v>
+        <v>458672</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>89</v>
@@ -1584,10 +1530,10 @@
         <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>527</v>
+        <v>1525</v>
       </c>
       <c r="N16" s="7">
-        <v>517596</v>
+        <v>1584320</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>92</v>
@@ -1605,10 +1551,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>168</v>
+        <v>592</v>
       </c>
       <c r="D17" s="7">
-        <v>166617</v>
+        <v>622152</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>95</v>
@@ -1620,10 +1566,10 @@
         <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>164</v>
+        <v>441</v>
       </c>
       <c r="I17" s="7">
-        <v>177260</v>
+        <v>465792</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>98</v>
@@ -1635,10 +1581,10 @@
         <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>332</v>
+        <v>1033</v>
       </c>
       <c r="N17" s="7">
-        <v>343877</v>
+        <v>1087945</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>101</v>
@@ -1656,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>531</v>
+        <v>1673</v>
       </c>
       <c r="D18" s="7">
-        <v>513407</v>
+        <v>1747800</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1671,10 +1617,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>328</v>
+        <v>885</v>
       </c>
       <c r="I18" s="7">
-        <v>348066</v>
+        <v>924464</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1686,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>859</v>
+        <v>2558</v>
       </c>
       <c r="N18" s="7">
-        <v>861473</v>
+        <v>2672265</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1702,171 +1648,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1081</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1125648</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="7">
-        <v>444</v>
-      </c>
-      <c r="I19" s="7">
-        <v>458672</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1525</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1584320</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>592</v>
-      </c>
-      <c r="D20" s="7">
-        <v>622152</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>441</v>
-      </c>
-      <c r="I20" s="7">
-        <v>465792</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1033</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1087945</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1673</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1747800</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>885</v>
-      </c>
-      <c r="I21" s="7">
-        <v>924464</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2558</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2672265</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
